--- a/cig2019/Assets/streamingAssets/Xlsxs/4.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/4.xlsx
@@ -19,28 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>对话编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>病人文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生我肚子痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我要死了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,63 +57,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>不得行好痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别打了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那我去死了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我不信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你就是搞我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你先停手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了等死吧告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生我肚子痛_你给我看看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不你_不痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那你_去死吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我打你_是治疗你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我_没有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没救了_等死吧_告辞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你2</t>
+  </si>
+  <si>
+    <t>打死你3</t>
+  </si>
+  <si>
     <t>我不是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选项1回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不得行好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那我去死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就是搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你先停手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你个龟孙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了等死吧告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束</t>
+    <t>我_不是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打_死你个龟孙1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死_你个龟孙2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打死你_个龟孙3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1病人文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2选项1提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3选项1文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4选项1回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5选项1影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6选项 2提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7选项2文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8选项2回复文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9选项1影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,164 +501,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>41</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/cig2019/Assets/streamingAssets/Xlsxs/4.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/4.xlsx
@@ -1,213 +1,494 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="20475" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>对话编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你别打我了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生你搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不你不痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你去死吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我打你是治疗你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不得行好痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>别打了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那我去死了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我不信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你就是搞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你先停手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了等死吧告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1病人文本</t>
+  </si>
+  <si>
+    <t>2选项1提示</t>
+  </si>
+  <si>
+    <t>3选项1文本</t>
+  </si>
+  <si>
+    <t>4选项1回复文本</t>
+  </si>
+  <si>
+    <t>5选项1影响</t>
+  </si>
+  <si>
+    <t>6选项 2提示</t>
+  </si>
+  <si>
+    <t>7选项2文本</t>
+  </si>
+  <si>
+    <t>8选项2回复文本</t>
+  </si>
+  <si>
+    <t>9选项1影响</t>
+  </si>
+  <si>
+    <t>刚结婚那会儿，我们事业才刚刚起步，我们两人就商量着说先不要孩子了，等以后稳定了再说。_如今感觉是时候考虑要个小孩了，他又开始担心我现在年纪大了会不会有危险，我一个女人都愿意冒这个险可他就是不情愿...._医生，我是真的希望有个自己的孩子，可是他...</t>
+  </si>
+  <si>
+    <t>沟通商量（鼓励）</t>
+  </si>
+  <si>
+    <t>太太，这件事情我觉得您应该和您丈夫更多的商量一下，而且去咨询一下妇产科可能会更好一点，据我所知，只要多加注意高龄产妇也不会有危险的。</t>
+  </si>
+  <si>
+    <t>你说的这些我也和他说过了，可是这件事上他很固执。</t>
+  </si>
+  <si>
+    <t>为了你好（打击）</t>
+  </si>
+  <si>
+    <t>太太，或许您一时半会很难接受，但您的丈夫的的确确也是为了你好，您是否有想过假如发生了意外您的丈夫该有多伤心？</t>
+  </si>
+  <si>
+    <t>我要是有个三长两短他肯定很伤心，所以这件事上他很固执。</t>
+  </si>
+  <si>
+    <t>我其实也清楚他是为了我好，我也曾经尝试说服自己去领养，可是...终究是有些不一样的啊。</t>
+  </si>
+  <si>
+    <t>表示理解（安抚）</t>
+  </si>
+  <si>
+    <t>太太，这件事上我大致的可以理解您，的确对于不同的人来讲领养这件事上看法会不同，这本身是无可厚非的。</t>
+  </si>
+  <si>
+    <t>唉，我要是心里这个坎能过的去，也不会和他发脾气了。</t>
+  </si>
+  <si>
+    <t>没有区别（打击）</t>
+  </si>
+  <si>
+    <t>太太，其实您丈夫的建议并不是不可取，血缘关系固然是比较重要的部分，但情感才是最重要的，领养的孩子只要用心对待和亲生的又有什么区别呢？</t>
+  </si>
+  <si>
+    <t>我也清楚现在领养的人也不少，可是我心里就是过不了这个坎啊！</t>
+  </si>
+  <si>
+    <t>为了这件事情，我们甚至在闹离婚，其实我也不想事情变成这样，但是他完全不理解我为什么这么想要这个孩子。</t>
+  </si>
+  <si>
+    <t>帮助沟通（鼓励）</t>
+  </si>
+  <si>
+    <t>太太，理解的事情是相互的，或许我们改变一下沟通的方式，尝试更加深入的沟通会有不一样的效果呢？_而且我觉得您可以带上您的丈夫一起来我这里进行咨询，我也许能帮助到您。</t>
+  </si>
+  <si>
+    <t>唉，要是他能多懂我一点就好了。</t>
+  </si>
+  <si>
+    <t>执念太深（打击）</t>
+  </si>
+  <si>
+    <t>实际上设身处地的想一下，假如我是您的丈夫可能也会难以理解为什么对自己要一个孩子有那么深的执念。_所以太太，我建议您也多为您的丈夫着想，他这么做也是因为爱你啊。</t>
+  </si>
+  <si>
+    <t>唉，你们都不理解我。</t>
+  </si>
+  <si>
+    <t>你的建议我会好好考虑的。</t>
+  </si>
+  <si>
+    <t>治疗结束</t>
+  </si>
+  <si>
+    <t>今天治疗就到这里了，还有啥问题的话可以预约下周哈！</t>
+  </si>
+  <si>
+    <t>医生再见！</t>
   </si>
   <si>
     <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生我肚子痛_你给我看看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不你_不痛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>那你_去死吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我打你_是治疗你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我_没有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没救了_等死吧_告辞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你2</t>
-  </si>
-  <si>
-    <t>打死你3</t>
-  </si>
-  <si>
-    <t>我不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我_不是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打_死你个龟孙1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死_你个龟孙2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打死你_个龟孙3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1病人文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2选项1提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3选项1文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4选项1回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6选项 2提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7选项2文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8选项2回复文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9选项1影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -215,24 +496,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,216 +1057,182 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
       </c>
       <c r="J4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cig2019/Assets/streamingAssets/Xlsxs/4.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/4.xlsx
@@ -130,11 +130,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,21 +144,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -172,127 +286,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -303,43 +296,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,133 +476,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +487,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,18 +531,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,30 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,159 +572,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1059,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1143,7 +1136,7 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1175,7 +1168,7 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1207,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="J4">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
